--- a/2022/Symphony/MARCH/16.03.2022/MC Bank Statement March-2022.xlsx
+++ b/2022/Symphony/MARCH/16.03.2022/MC Bank Statement March-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="249">
   <si>
     <t>Date</t>
   </si>
@@ -606,9 +606,6 @@
     <t>22.02.2022</t>
   </si>
   <si>
-    <t>Mama</t>
-  </si>
-  <si>
     <t>23.02.2022</t>
   </si>
   <si>
@@ -802,6 +799,12 @@
   </si>
   <si>
     <t>AB=Fahim Telecom</t>
+  </si>
+  <si>
+    <t>Jony Telecom (Sujon)</t>
+  </si>
+  <si>
+    <t>Najim Mama</t>
   </si>
 </sst>
 </file>
@@ -2993,9 +2996,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3199,6 +3199,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3888,33 +3891,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="315"/>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="316"/>
-      <c r="B2" s="313" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="316"/>
-      <c r="B3" s="314" t="s">
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="316"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3932,7 +3935,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="316"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3950,7 +3953,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="316"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3962,7 +3965,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="316"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="26" t="s">
         <v>58</v>
       </c>
@@ -3981,7 +3984,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="316"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="26" t="s">
         <v>59</v>
       </c>
@@ -4000,7 +4003,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="316"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="26" t="s">
         <v>61</v>
       </c>
@@ -4019,7 +4022,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="316"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="26" t="s">
         <v>62</v>
       </c>
@@ -4038,7 +4041,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="316"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="26" t="s">
         <v>63</v>
       </c>
@@ -4057,7 +4060,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="316"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="26" t="s">
         <v>64</v>
       </c>
@@ -4076,7 +4079,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="316"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="26" t="s">
         <v>65</v>
       </c>
@@ -4095,7 +4098,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="316"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="26" t="s">
         <v>66</v>
       </c>
@@ -4114,7 +4117,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="316"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="26" t="s">
         <v>67</v>
       </c>
@@ -4133,7 +4136,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="316"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4146,7 +4149,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="316"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4159,7 +4162,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="316"/>
+      <c r="A18" s="315"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4172,7 +4175,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="316"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4185,7 +4188,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="316"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4198,7 +4201,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="316"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4211,7 +4214,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="316"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4224,7 +4227,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="316"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4237,7 +4240,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="316"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4250,7 +4253,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="316"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4263,7 +4266,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="316"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4276,7 +4279,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="316"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4289,7 +4292,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="316"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4302,7 +4305,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="316"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4315,7 +4318,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="316"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4328,7 +4331,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="316"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4341,7 +4344,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="316"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4354,7 +4357,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="316"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4367,7 +4370,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="316"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4380,7 +4383,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="316"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4393,7 +4396,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="316"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4406,7 +4409,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="316"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4419,7 +4422,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="316"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4432,7 +4435,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="316"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4445,7 +4448,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="316"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4458,7 +4461,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="316"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4471,7 +4474,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="316"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4484,7 +4487,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="316"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4497,7 +4500,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="316"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4510,7 +4513,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="316"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4523,7 +4526,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="316"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4536,7 +4539,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="316"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4549,7 +4552,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="316"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4562,7 +4565,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="316"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4575,7 +4578,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="316"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4588,7 +4591,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="316"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4601,7 +4604,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="316"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4614,7 +4617,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="316"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4627,7 +4630,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="316"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4640,7 +4643,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="316"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4652,7 +4655,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="316"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4664,7 +4667,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="316"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4676,7 +4679,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="316"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4688,7 +4691,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="316"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4700,7 +4703,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="316"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4712,7 +4715,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="316"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4724,7 +4727,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="316"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4736,7 +4739,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="316"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4748,7 +4751,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="316"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4760,7 +4763,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="316"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4772,7 +4775,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="316"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4784,7 +4787,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="316"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4796,7 +4799,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="316"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4808,7 +4811,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="316"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4820,7 +4823,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="316"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4832,7 +4835,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="316"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4844,7 +4847,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="316"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4856,7 +4859,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="316"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4868,7 +4871,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="316"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4880,7 +4883,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="316"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4892,7 +4895,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="316"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4904,7 +4907,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="316"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4916,7 +4919,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="316"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4928,7 +4931,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="316"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4940,7 +4943,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="316"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4952,7 +4955,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="316"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4964,7 +4967,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="316"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4976,7 +4979,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="316"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5016,7 +5019,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5033,33 +5036,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="315"/>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="316"/>
-      <c r="B2" s="313" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="316"/>
-      <c r="B3" s="314" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="316"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5077,7 +5080,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="316"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5095,7 +5098,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="316"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="26"/>
       <c r="C6" s="264"/>
       <c r="D6" s="264"/>
@@ -5107,9 +5110,9 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="316"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="264">
         <v>0</v>
@@ -5125,9 +5128,9 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="316"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="264">
         <v>0</v>
@@ -5143,9 +5146,9 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="316"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="264">
         <v>800000</v>
@@ -5161,9 +5164,9 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="316"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="267">
         <v>0</v>
@@ -5179,9 +5182,9 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="316"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="264">
         <v>170000</v>
@@ -5197,9 +5200,9 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="316"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="264">
         <v>0</v>
@@ -5215,9 +5218,9 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="316"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="264">
         <v>6500000</v>
@@ -5233,9 +5236,9 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="316"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" s="264">
         <v>150000</v>
@@ -5251,9 +5254,9 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="316"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="264">
         <v>150000</v>
@@ -5261,7 +5264,7 @@
       <c r="D15" s="264">
         <v>150000</v>
       </c>
-      <c r="E15" s="311">
+      <c r="E15" s="310">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5269,49 +5272,49 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="316"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="309">
+        <v>225</v>
+      </c>
+      <c r="C16" s="308">
         <v>500000</v>
       </c>
-      <c r="D16" s="309">
+      <c r="D16" s="308">
         <v>500000</v>
       </c>
-      <c r="E16" s="310">
+      <c r="E16" s="309">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
-      <c r="F16" s="312" t="s">
-        <v>235</v>
+      <c r="F16" s="311" t="s">
+        <v>234</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="316"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="309">
+        <v>233</v>
+      </c>
+      <c r="C17" s="308">
         <v>500000</v>
       </c>
-      <c r="D17" s="309">
+      <c r="D17" s="308">
         <v>500000</v>
       </c>
-      <c r="E17" s="310">
+      <c r="E17" s="309">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
-      <c r="F17" s="312" t="s">
+      <c r="F17" s="311" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="315"/>
+      <c r="B18" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="316"/>
-      <c r="B18" s="26" t="s">
-        <v>236</v>
       </c>
       <c r="C18" s="264">
         <v>200000</v>
@@ -5327,9 +5330,9 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="316"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="264">
         <v>200000</v>
@@ -5337,7 +5340,7 @@
       <c r="D19" s="267">
         <v>200000</v>
       </c>
-      <c r="E19" s="311">
+      <c r="E19" s="310">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
@@ -5345,29 +5348,29 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="316"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="309">
+        <v>240</v>
+      </c>
+      <c r="C20" s="308">
         <v>500000</v>
       </c>
-      <c r="D20" s="309">
+      <c r="D20" s="308">
         <v>500000</v>
       </c>
-      <c r="E20" s="310">
+      <c r="E20" s="309">
         <f t="shared" si="0"/>
         <v>11038</v>
       </c>
-      <c r="F20" s="312" t="s">
-        <v>235</v>
+      <c r="F20" s="311" t="s">
+        <v>234</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="316"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="264">
         <v>300000</v>
@@ -5383,7 +5386,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="316"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="26"/>
       <c r="C22" s="264"/>
       <c r="D22" s="264"/>
@@ -5395,7 +5398,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="316"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="26"/>
       <c r="C23" s="264"/>
       <c r="D23" s="264"/>
@@ -5407,7 +5410,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="316"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="26"/>
       <c r="C24" s="264"/>
       <c r="D24" s="264"/>
@@ -5419,7 +5422,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="316"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="26"/>
       <c r="C25" s="264"/>
       <c r="D25" s="264"/>
@@ -5431,7 +5434,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="316"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="26"/>
       <c r="C26" s="264"/>
       <c r="D26" s="264"/>
@@ -5443,7 +5446,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="316"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="26"/>
       <c r="C27" s="264"/>
       <c r="D27" s="264"/>
@@ -5455,7 +5458,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="316"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="26"/>
       <c r="C28" s="264"/>
       <c r="D28" s="264"/>
@@ -5467,7 +5470,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="316"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="26"/>
       <c r="C29" s="264"/>
       <c r="D29" s="264"/>
@@ -5479,7 +5482,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="316"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="26"/>
       <c r="C30" s="264"/>
       <c r="D30" s="264"/>
@@ -5491,7 +5494,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="316"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="26"/>
       <c r="C31" s="264"/>
       <c r="D31" s="264"/>
@@ -5503,7 +5506,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="316"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="26"/>
       <c r="C32" s="264"/>
       <c r="D32" s="264"/>
@@ -5515,7 +5518,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="316"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="26"/>
       <c r="C33" s="264"/>
       <c r="D33" s="267"/>
@@ -5527,7 +5530,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="316"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="26"/>
       <c r="C34" s="264"/>
       <c r="D34" s="264"/>
@@ -5539,7 +5542,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="316"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="26"/>
       <c r="C35" s="264"/>
       <c r="D35" s="264"/>
@@ -5551,7 +5554,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="316"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="26"/>
       <c r="C36" s="264"/>
       <c r="D36" s="264"/>
@@ -5563,7 +5566,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="316"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="26"/>
       <c r="C37" s="264"/>
       <c r="D37" s="264"/>
@@ -5575,7 +5578,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="316"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="26"/>
       <c r="C38" s="264"/>
       <c r="D38" s="264"/>
@@ -5587,7 +5590,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="316"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="26"/>
       <c r="C39" s="264"/>
       <c r="D39" s="264"/>
@@ -5599,7 +5602,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="316"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="26"/>
       <c r="C40" s="264"/>
       <c r="D40" s="264"/>
@@ -5611,7 +5614,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="316"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="26"/>
       <c r="C41" s="264"/>
       <c r="D41" s="264"/>
@@ -5623,7 +5626,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="316"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="26"/>
       <c r="C42" s="264"/>
       <c r="D42" s="264"/>
@@ -5635,7 +5638,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="316"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="26"/>
       <c r="C43" s="264"/>
       <c r="D43" s="264"/>
@@ -5647,7 +5650,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="316"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="26"/>
       <c r="C44" s="264"/>
       <c r="D44" s="264"/>
@@ -5659,7 +5662,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="316"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="26"/>
       <c r="C45" s="264"/>
       <c r="D45" s="264"/>
@@ -5671,7 +5674,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="316"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="26"/>
       <c r="C46" s="264"/>
       <c r="D46" s="264"/>
@@ -5683,7 +5686,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="316"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="26"/>
       <c r="C47" s="264"/>
       <c r="D47" s="264"/>
@@ -5695,7 +5698,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="316"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="26"/>
       <c r="C48" s="264"/>
       <c r="D48" s="264"/>
@@ -5707,7 +5710,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="316"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="26"/>
       <c r="C49" s="264"/>
       <c r="D49" s="264"/>
@@ -5719,7 +5722,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="316"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="26"/>
       <c r="C50" s="264"/>
       <c r="D50" s="264"/>
@@ -5731,7 +5734,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="316"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="26"/>
       <c r="C51" s="264"/>
       <c r="D51" s="264"/>
@@ -5743,7 +5746,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="316"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="26"/>
       <c r="C52" s="264"/>
       <c r="D52" s="264"/>
@@ -5755,7 +5758,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="316"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="26"/>
       <c r="C53" s="264"/>
       <c r="D53" s="264"/>
@@ -5767,7 +5770,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="316"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="26"/>
       <c r="C54" s="264"/>
       <c r="D54" s="264"/>
@@ -5779,7 +5782,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="316"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="26"/>
       <c r="C55" s="264"/>
       <c r="D55" s="264"/>
@@ -5790,7 +5793,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="316"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="26"/>
       <c r="C56" s="264"/>
       <c r="D56" s="264"/>
@@ -5801,7 +5804,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="316"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="26"/>
       <c r="C57" s="264"/>
       <c r="D57" s="264"/>
@@ -5812,7 +5815,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="316"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="26"/>
       <c r="C58" s="264"/>
       <c r="D58" s="264"/>
@@ -5823,7 +5826,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="316"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="26"/>
       <c r="C59" s="264"/>
       <c r="D59" s="264"/>
@@ -5834,7 +5837,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="316"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="26"/>
       <c r="C60" s="264"/>
       <c r="D60" s="264"/>
@@ -5845,7 +5848,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="316"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="26"/>
       <c r="C61" s="264"/>
       <c r="D61" s="264"/>
@@ -5856,7 +5859,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="316"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="26"/>
       <c r="C62" s="264"/>
       <c r="D62" s="264"/>
@@ -5867,7 +5870,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="316"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="26"/>
       <c r="C63" s="264"/>
       <c r="D63" s="264"/>
@@ -5878,7 +5881,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="316"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="26"/>
       <c r="C64" s="264"/>
       <c r="D64" s="264"/>
@@ -5889,7 +5892,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="316"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="26"/>
       <c r="C65" s="264"/>
       <c r="D65" s="264"/>
@@ -5900,7 +5903,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="316"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="26"/>
       <c r="C66" s="264"/>
       <c r="D66" s="264"/>
@@ -5911,7 +5914,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="316"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="26"/>
       <c r="C67" s="264"/>
       <c r="D67" s="264"/>
@@ -5922,7 +5925,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="316"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="26"/>
       <c r="C68" s="264"/>
       <c r="D68" s="264"/>
@@ -5933,7 +5936,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="316"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="26"/>
       <c r="C69" s="264"/>
       <c r="D69" s="264"/>
@@ -5944,7 +5947,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="316"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="26"/>
       <c r="C70" s="264"/>
       <c r="D70" s="264"/>
@@ -5955,7 +5958,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="316"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="26"/>
       <c r="C71" s="264"/>
       <c r="D71" s="264"/>
@@ -5966,7 +5969,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="316"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="26"/>
       <c r="C72" s="264"/>
       <c r="D72" s="264"/>
@@ -5977,7 +5980,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="316"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="26"/>
       <c r="C73" s="264"/>
       <c r="D73" s="264"/>
@@ -5988,7 +5991,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="316"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="26"/>
       <c r="C74" s="264"/>
       <c r="D74" s="264"/>
@@ -5999,7 +6002,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="316"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="26"/>
       <c r="C75" s="264"/>
       <c r="D75" s="264"/>
@@ -6010,7 +6013,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="316"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="26"/>
       <c r="C76" s="264"/>
       <c r="D76" s="264"/>
@@ -6021,7 +6024,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="316"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="26"/>
       <c r="C77" s="264"/>
       <c r="D77" s="264"/>
@@ -6032,7 +6035,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="316"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="26"/>
       <c r="C78" s="264"/>
       <c r="D78" s="264"/>
@@ -6043,7 +6046,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="316"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="26"/>
       <c r="C79" s="264"/>
       <c r="D79" s="264"/>
@@ -6055,7 +6058,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="316"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="26"/>
       <c r="C80" s="264"/>
       <c r="D80" s="264"/>
@@ -6067,7 +6070,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="316"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="26"/>
       <c r="C81" s="264"/>
       <c r="D81" s="264"/>
@@ -6079,7 +6082,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="316"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="26"/>
       <c r="C82" s="264"/>
       <c r="D82" s="264"/>
@@ -6091,7 +6094,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="316"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="31"/>
       <c r="C83" s="266">
         <f>SUM(C5:C72)</f>
@@ -6159,67 +6162,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="321"/>
-      <c r="J1" s="321"/>
-      <c r="K1" s="321"/>
-      <c r="L1" s="321"/>
-      <c r="M1" s="321"/>
-      <c r="N1" s="321"/>
-      <c r="O1" s="321"/>
-      <c r="P1" s="321"/>
-      <c r="Q1" s="321"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
+      <c r="O1" s="320"/>
+      <c r="P1" s="320"/>
+      <c r="Q1" s="320"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="321" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="322"/>
-      <c r="G2" s="322"/>
-      <c r="H2" s="322"/>
-      <c r="I2" s="322"/>
-      <c r="J2" s="322"/>
-      <c r="K2" s="322"/>
-      <c r="L2" s="322"/>
-      <c r="M2" s="322"/>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="322"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+      <c r="O2" s="321"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="323" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="324"/>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="324"/>
-      <c r="I3" s="324"/>
-      <c r="J3" s="324"/>
-      <c r="K3" s="324"/>
-      <c r="L3" s="324"/>
-      <c r="M3" s="324"/>
-      <c r="N3" s="324"/>
-      <c r="O3" s="324"/>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="325"/>
+      <c r="A3" s="322" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="323"/>
+      <c r="M3" s="323"/>
+      <c r="N3" s="323"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="323"/>
+      <c r="Q3" s="324"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6228,52 +6231,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="326" t="s">
+      <c r="A4" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="328" t="s">
+      <c r="B4" s="327" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="317" t="s">
+      <c r="C4" s="316" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="317" t="s">
+      <c r="D4" s="316" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="317" t="s">
+      <c r="E4" s="316" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="317" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="317" t="s">
+      <c r="F4" s="316" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="316" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="317" t="s">
+      <c r="H4" s="316" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="317" t="s">
+      <c r="I4" s="316" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="317" t="s">
+      <c r="J4" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="317" t="s">
+      <c r="K4" s="316" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="317" t="s">
+      <c r="L4" s="316" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="317" t="s">
+      <c r="M4" s="316" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="317" t="s">
+      <c r="N4" s="316" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="319" t="s">
+      <c r="O4" s="318" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="330" t="s">
+      <c r="P4" s="329" t="s">
         <v>70</v>
       </c>
       <c r="Q4" s="133" t="s">
@@ -6286,22 +6289,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="327"/>
-      <c r="B5" s="329"/>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
-      <c r="G5" s="318"/>
-      <c r="H5" s="318"/>
-      <c r="I5" s="318"/>
-      <c r="J5" s="318"/>
-      <c r="K5" s="318"/>
-      <c r="L5" s="318"/>
-      <c r="M5" s="318"/>
-      <c r="N5" s="318"/>
-      <c r="O5" s="320"/>
-      <c r="P5" s="331"/>
+      <c r="A5" s="326"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="319"/>
+      <c r="P5" s="330"/>
       <c r="Q5" s="134" t="s">
         <v>45</v>
       </c>
@@ -6314,7 +6317,7 @@
     </row>
     <row r="6" spans="1:24" s="13" customFormat="1">
       <c r="A6" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="80">
         <v>800</v>
@@ -6354,7 +6357,7 @@
     </row>
     <row r="7" spans="1:24" s="13" customFormat="1">
       <c r="A7" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="80">
         <v>500</v>
@@ -6398,7 +6401,7 @@
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1">
       <c r="A8" s="79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="87">
         <v>1200</v>
@@ -6440,7 +6443,7 @@
     </row>
     <row r="9" spans="1:24" s="13" customFormat="1">
       <c r="A9" s="79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="87">
         <v>500</v>
@@ -6478,7 +6481,7 @@
     </row>
     <row r="10" spans="1:24" s="13" customFormat="1">
       <c r="A10" s="79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="87">
         <v>1300</v>
@@ -6520,7 +6523,7 @@
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1">
       <c r="A11" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="87">
         <v>500</v>
@@ -6562,7 +6565,7 @@
     </row>
     <row r="12" spans="1:24" s="13" customFormat="1">
       <c r="A12" s="79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="87">
         <v>800</v>
@@ -6604,7 +6607,7 @@
     </row>
     <row r="13" spans="1:24" s="13" customFormat="1">
       <c r="A13" s="79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="87">
         <v>500</v>
@@ -6647,7 +6650,7 @@
     </row>
     <row r="14" spans="1:24" s="13" customFormat="1">
       <c r="A14" s="79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="87">
         <v>500</v>
@@ -6689,7 +6692,7 @@
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
       <c r="A15" s="79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="87">
         <v>1400</v>
@@ -6731,7 +6734,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="87">
         <v>500</v>
@@ -6771,7 +6774,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="87">
         <v>500</v>
@@ -6815,7 +6818,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="87">
         <v>1300</v>
@@ -6853,7 +6856,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19" s="87">
         <v>500</v>
@@ -9377,6 +9380,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9390,12 +9399,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9409,8 +9412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9437,14 +9440,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="335" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="338"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="150"/>
@@ -9538,14 +9541,14 @@
       <c r="CS1" s="145"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="339" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="340"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="341"/>
+      <c r="A2" s="338" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="340"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="150"/>
@@ -9639,14 +9642,14 @@
       <c r="CS2" s="145"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="342" t="s">
+      <c r="A3" s="341" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="343"/>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="344"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="343"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="150"/>
@@ -9854,7 +9857,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="52">
         <v>490880</v>
@@ -9964,7 +9967,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="190" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="53">
         <v>271990</v>
@@ -10074,7 +10077,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="190" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="53">
         <v>285340</v>
@@ -10184,7 +10187,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="53">
         <v>306390</v>
@@ -10294,7 +10297,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="190" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="53">
         <v>324900</v>
@@ -10404,7 +10407,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="190" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" s="53">
         <v>413720</v>
@@ -10514,7 +10517,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="53">
         <v>429610</v>
@@ -10624,7 +10627,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="190" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="53">
         <v>507020</v>
@@ -10734,7 +10737,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="53">
         <v>280540</v>
@@ -10844,7 +10847,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="53">
         <v>410070</v>
@@ -10954,7 +10957,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="190" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="53">
         <v>272690</v>
@@ -11064,7 +11067,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="190" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16" s="53">
         <v>240880</v>
@@ -11174,7 +11177,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="190" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="53">
         <v>394350</v>
@@ -11284,20 +11287,20 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="190" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="53">
         <v>246250</v>
       </c>
       <c r="C18" s="56">
-        <v>234460</v>
+        <v>235060</v>
       </c>
       <c r="D18" s="53">
         <v>2040</v>
       </c>
       <c r="E18" s="53">
         <f t="shared" si="0"/>
-        <v>236500</v>
+        <v>237100</v>
       </c>
       <c r="F18" s="244"/>
       <c r="G18" s="252"/>
@@ -12830,7 +12833,7 @@
       </c>
       <c r="C33" s="271">
         <f>SUM(C5:C32)</f>
-        <v>4729815</v>
+        <v>4730415</v>
       </c>
       <c r="D33" s="270">
         <f>SUM(D5:D32)</f>
@@ -12838,11 +12841,11 @@
       </c>
       <c r="E33" s="270">
         <f>SUM(E5:E32)</f>
-        <v>4762090</v>
+        <v>4762690</v>
       </c>
       <c r="F33" s="270">
         <f>B33-E33</f>
-        <v>112540</v>
+        <v>111940</v>
       </c>
       <c r="G33" s="272"/>
       <c r="H33" s="146"/>
@@ -13037,12 +13040,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="140"/>
-      <c r="B35" s="334" t="s">
+      <c r="B35" s="333" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="334"/>
-      <c r="E35" s="334"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="141"/>
       <c r="G35" s="146"/>
       <c r="H35" s="146"/>
@@ -13250,19 +13253,19 @@
     </row>
     <row r="37" spans="1:97">
       <c r="A37" s="192" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="293" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="135" t="s">
-        <v>129</v>
+        <v>100</v>
+      </c>
+      <c r="B37" s="361" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="135">
+        <v>1309083520</v>
       </c>
       <c r="D37" s="215">
-        <v>600</v>
-      </c>
-      <c r="E37" s="294" t="s">
-        <v>245</v>
+        <v>290000</v>
+      </c>
+      <c r="E37" s="293" t="s">
+        <v>188</v>
       </c>
       <c r="F37" s="141"/>
       <c r="G37" s="146"/>
@@ -13362,16 +13365,16 @@
         <v>103</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="C38" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D38" s="216">
-        <v>6500</v>
-      </c>
-      <c r="E38" s="184" t="s">
-        <v>192</v>
+        <v>10340</v>
+      </c>
+      <c r="E38" s="183" t="s">
+        <v>206</v>
       </c>
       <c r="F38" s="139"/>
       <c r="G38" s="146"/>
@@ -13471,16 +13474,16 @@
         <v>103</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="C39" s="123" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D39" s="216">
-        <v>7040</v>
+        <v>2000</v>
       </c>
       <c r="E39" s="183" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="F39" s="139"/>
       <c r="G39" s="146"/>
@@ -13579,17 +13582,17 @@
       <c r="A40" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="124" t="s">
-        <v>168</v>
+      <c r="B40" s="62" t="s">
+        <v>174</v>
       </c>
       <c r="C40" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D40" s="216">
-        <v>5000</v>
-      </c>
-      <c r="E40" s="183" t="s">
-        <v>192</v>
+        <v>6500</v>
+      </c>
+      <c r="E40" s="184" t="s">
+        <v>191</v>
       </c>
       <c r="F40" s="139"/>
       <c r="G40" s="152"/>
@@ -13688,17 +13691,17 @@
       <c r="A41" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>211</v>
+      <c r="B41" s="124" t="s">
+        <v>125</v>
       </c>
       <c r="C41" s="123" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D41" s="216">
-        <v>10340</v>
+        <v>7040</v>
       </c>
       <c r="E41" s="183" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="F41" s="144"/>
       <c r="G41" s="153" t="s">
@@ -13800,16 +13803,16 @@
         <v>103</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="C42" s="123" t="s">
         <v>129</v>
       </c>
       <c r="D42" s="216">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="E42" s="183" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F42" s="145"/>
       <c r="G42" s="154" t="s">
@@ -13908,25 +13911,17 @@
     </row>
     <row r="43" spans="1:97">
       <c r="A43" s="192" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="123">
-        <v>1309083520</v>
-      </c>
-      <c r="D43" s="216">
-        <v>290000</v>
-      </c>
-      <c r="E43" s="183" t="s">
-        <v>189</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B43" s="124"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="216"/>
+      <c r="E43" s="183"/>
       <c r="F43" s="141"/>
-      <c r="G43" s="335"/>
-      <c r="H43" s="335"/>
-      <c r="I43" s="335"/>
-      <c r="J43" s="335"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
       <c r="K43" s="65"/>
       <c r="L43" s="150"/>
       <c r="M43" s="65"/>
@@ -14251,7 +14246,7 @@
         <v>378730</v>
       </c>
       <c r="E46" s="281" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F46" s="138"/>
       <c r="G46" s="145"/>
@@ -14373,7 +14368,7 @@
         <v>230000</v>
       </c>
       <c r="E47" s="185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F47" s="139"/>
       <c r="G47" s="145"/>
@@ -14387,7 +14382,7 @@
         <v>13000</v>
       </c>
       <c r="K47" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L47" s="136">
         <v>13000</v>
@@ -14631,7 +14626,7 @@
         <v>14050</v>
       </c>
       <c r="K49" s="178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L49" s="136">
         <v>14050</v>
@@ -14739,7 +14734,7 @@
         <v>192450</v>
       </c>
       <c r="E50" s="185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F50" s="139"/>
       <c r="G50" s="145"/>
@@ -14875,7 +14870,7 @@
         <v>9000</v>
       </c>
       <c r="K51" s="178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L51" s="136">
         <v>9000</v>
@@ -14983,7 +14978,7 @@
         <v>37450</v>
       </c>
       <c r="E52" s="186" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F52" s="139"/>
       <c r="G52" s="145"/>
@@ -15105,7 +15100,7 @@
         <v>36150</v>
       </c>
       <c r="E53" s="187" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F53" s="139"/>
       <c r="G53" s="145"/>
@@ -15227,7 +15222,7 @@
         <v>73450</v>
       </c>
       <c r="E54" s="185" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F54" s="139"/>
       <c r="G54" s="145"/>
@@ -15241,7 +15236,7 @@
         <v>479490</v>
       </c>
       <c r="K54" s="178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L54" s="136">
         <v>479490</v>
@@ -15355,7 +15350,7 @@
         <v>230000</v>
       </c>
       <c r="K55" s="178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L55" s="136">
         <v>230000</v>
@@ -15566,14 +15561,14 @@
         <v>102</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C57" s="123"/>
       <c r="D57" s="219">
         <v>5000</v>
       </c>
       <c r="E57" s="185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F57" s="139"/>
       <c r="G57" s="145"/>
@@ -15709,7 +15704,7 @@
         <v>226540</v>
       </c>
       <c r="K58" s="178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L58" s="136">
         <v>226540</v>
@@ -15953,7 +15948,7 @@
         <v>35100</v>
       </c>
       <c r="K60" s="177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L60" s="136">
         <v>35100</v>
@@ -16075,7 +16070,7 @@
         <v>39300</v>
       </c>
       <c r="K61" s="178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L61" s="136">
         <v>39300</v>
@@ -16183,7 +16178,7 @@
         <v>17400</v>
       </c>
       <c r="E62" s="186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F62" s="138"/>
       <c r="G62" s="145"/>
@@ -16197,7 +16192,7 @@
         <v>54290</v>
       </c>
       <c r="K62" s="179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L62" s="136">
         <v>54290</v>
@@ -16549,7 +16544,7 @@
         <v>25000</v>
       </c>
       <c r="E65" s="186" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F65" s="139"/>
       <c r="G65" s="145"/>
@@ -16793,7 +16788,7 @@
         <v>19910</v>
       </c>
       <c r="E67" s="186" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F67" s="139"/>
       <c r="G67" s="145"/>
@@ -16807,7 +16802,7 @@
         <v>17400</v>
       </c>
       <c r="K67" s="178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L67" s="136">
         <v>17400</v>
@@ -16915,7 +16910,7 @@
         <v>12030</v>
       </c>
       <c r="E68" s="187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F68" s="139"/>
       <c r="G68" s="145"/>
@@ -17025,17 +17020,17 @@
     </row>
     <row r="69" spans="1:97">
       <c r="A69" s="236" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="57" t="s">
         <v>196</v>
-      </c>
-      <c r="B69" s="57" t="s">
-        <v>197</v>
       </c>
       <c r="C69" s="123"/>
       <c r="D69" s="219">
         <v>5000</v>
       </c>
       <c r="E69" s="185" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F69" s="65"/>
       <c r="G69" s="145"/>
@@ -17145,17 +17140,17 @@
     </row>
     <row r="70" spans="1:97">
       <c r="A70" s="236" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C70" s="123"/>
       <c r="D70" s="219">
         <v>11450</v>
       </c>
       <c r="E70" s="186" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F70" s="139"/>
       <c r="G70" s="145"/>
@@ -17637,7 +17632,7 @@
         <v>10000</v>
       </c>
       <c r="K74" s="177" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L74" s="136">
         <v>10000</v>
@@ -17745,7 +17740,7 @@
         <v>10370</v>
       </c>
       <c r="E75" s="186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F75" s="139"/>
       <c r="G75" s="145"/>
@@ -17759,7 +17754,7 @@
         <v>18430</v>
       </c>
       <c r="K75" s="123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L75" s="136">
         <v>18430</v>
@@ -17855,17 +17850,17 @@
     </row>
     <row r="76" spans="1:97">
       <c r="A76" s="236" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="58" t="s">
         <v>202</v>
-      </c>
-      <c r="B76" s="58" t="s">
-        <v>203</v>
       </c>
       <c r="C76" s="123"/>
       <c r="D76" s="219">
         <v>26800</v>
       </c>
       <c r="E76" s="187" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F76" s="139"/>
       <c r="G76" s="145"/>
@@ -17879,7 +17874,7 @@
         <v>8490</v>
       </c>
       <c r="K76" s="176" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L76" s="136">
         <v>8490</v>
@@ -17975,17 +17970,17 @@
     </row>
     <row r="77" spans="1:97">
       <c r="A77" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="58" t="s">
         <v>214</v>
-      </c>
-      <c r="B77" s="58" t="s">
-        <v>215</v>
       </c>
       <c r="C77" s="123"/>
       <c r="D77" s="219">
         <v>7300</v>
       </c>
       <c r="E77" s="187" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F77" s="139"/>
       <c r="G77" s="145"/>
@@ -18095,17 +18090,17 @@
     </row>
     <row r="78" spans="1:97">
       <c r="A78" s="236" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C78" s="123"/>
       <c r="D78" s="219">
         <v>9580</v>
       </c>
       <c r="E78" s="185" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F78" s="139"/>
       <c r="G78" s="145"/>
@@ -18241,7 +18236,7 @@
         <v>10000</v>
       </c>
       <c r="K79" s="178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L79" s="136">
         <v>10000</v>
@@ -18340,14 +18335,14 @@
         <v>152</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C80" s="123"/>
       <c r="D80" s="219">
         <v>10000</v>
       </c>
       <c r="E80" s="186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F80" s="139" t="s">
         <v>13</v>
@@ -18363,7 +18358,7 @@
         <v>270000</v>
       </c>
       <c r="K80" s="178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L80" s="136">
         <v>270000</v>
@@ -18462,19 +18457,19 @@
         <v>152</v>
       </c>
       <c r="B81" s="58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C81" s="123"/>
       <c r="D81" s="219">
         <v>7700</v>
       </c>
       <c r="E81" s="187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F81" s="139"/>
       <c r="G81" s="145"/>
       <c r="H81" s="195" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I81" s="60">
         <v>1727608308</v>
@@ -18483,7 +18478,7 @@
         <v>7700</v>
       </c>
       <c r="K81" s="178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L81" s="136">
         <v>7700</v>
@@ -18582,16 +18577,16 @@
         <v>152</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C82" s="123"/>
       <c r="D82" s="219">
         <v>10000</v>
       </c>
       <c r="E82" s="187" t="s">
-        <v>236</v>
-      </c>
-      <c r="F82" s="304"/>
+        <v>235</v>
+      </c>
+      <c r="F82" s="303"/>
       <c r="G82" s="145"/>
       <c r="H82" s="195" t="s">
         <v>137</v>
@@ -18603,7 +18598,7 @@
         <v>39800</v>
       </c>
       <c r="K82" s="178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L82" s="136">
         <v>39800</v>
@@ -18699,29 +18694,29 @@
     </row>
     <row r="83" spans="1:97">
       <c r="A83" s="236" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C83" s="123"/>
       <c r="D83" s="219">
         <v>8000</v>
       </c>
       <c r="E83" s="187" t="s">
-        <v>241</v>
-      </c>
-      <c r="F83" s="304"/>
+        <v>240</v>
+      </c>
+      <c r="F83" s="303"/>
       <c r="G83" s="145"/>
       <c r="H83" s="195" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I83" s="60"/>
       <c r="J83" s="56">
         <v>300</v>
       </c>
       <c r="K83" s="178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L83" s="136">
         <v>300</v>
@@ -18817,19 +18812,19 @@
     </row>
     <row r="84" spans="1:97">
       <c r="A84" s="236" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="58" t="s">
         <v>200</v>
-      </c>
-      <c r="B84" s="58" t="s">
-        <v>201</v>
       </c>
       <c r="C84" s="123"/>
       <c r="D84" s="219">
         <v>10900</v>
       </c>
       <c r="E84" s="186" t="s">
-        <v>245</v>
-      </c>
-      <c r="F84" s="304"/>
+        <v>244</v>
+      </c>
+      <c r="F84" s="303"/>
       <c r="G84" s="145"/>
       <c r="H84" s="195" t="s">
         <v>178</v>
@@ -18936,7 +18931,7 @@
       <c r="CS84" s="145"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="300" t="s">
+      <c r="A85" s="299" t="s">
         <v>100</v>
       </c>
       <c r="B85" s="58" t="s">
@@ -18951,7 +18946,7 @@
       <c r="E85" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="F85" s="304"/>
+      <c r="F85" s="303"/>
       <c r="G85" s="145"/>
       <c r="H85" s="195" t="s">
         <v>164</v>
@@ -19071,9 +19066,9 @@
         <v>26500</v>
       </c>
       <c r="E86" s="186" t="s">
-        <v>226</v>
-      </c>
-      <c r="F86" s="304"/>
+        <v>225</v>
+      </c>
+      <c r="F86" s="303"/>
       <c r="G86" s="145"/>
       <c r="H86" s="195" t="s">
         <v>53</v>
@@ -19184,14 +19179,14 @@
         <v>100</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" s="123"/>
       <c r="D87" s="219">
         <v>20000</v>
       </c>
       <c r="E87" s="186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F87" s="139"/>
       <c r="G87" s="145"/>
@@ -19301,17 +19296,17 @@
     </row>
     <row r="88" spans="1:97">
       <c r="A88" s="236" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C88" s="123"/>
       <c r="D88" s="219">
         <v>7700</v>
       </c>
       <c r="E88" s="185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F88" s="139"/>
       <c r="G88" s="145"/>
@@ -19421,17 +19416,17 @@
     </row>
     <row r="89" spans="1:97">
       <c r="A89" s="236" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B89" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C89" s="123"/>
       <c r="D89" s="219">
         <v>18610</v>
       </c>
       <c r="E89" s="185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F89" s="139"/>
       <c r="G89" s="145"/>
@@ -19543,7 +19538,7 @@
         <v>40000</v>
       </c>
       <c r="E90" s="186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F90" s="139"/>
       <c r="G90" s="145"/>
@@ -19646,14 +19641,14 @@
         <v>136</v>
       </c>
       <c r="B91" s="124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C91" s="123"/>
       <c r="D91" s="219">
         <v>15000</v>
       </c>
       <c r="E91" s="186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F91" s="139"/>
       <c r="G91" s="145"/>
@@ -19753,17 +19748,17 @@
     </row>
     <row r="92" spans="1:97">
       <c r="A92" s="236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B92" s="58" t="s">
         <v>237</v>
-      </c>
-      <c r="B92" s="58" t="s">
-        <v>238</v>
       </c>
       <c r="C92" s="123"/>
       <c r="D92" s="219">
         <v>15130</v>
       </c>
       <c r="E92" s="187" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F92" s="145"/>
       <c r="G92" s="145"/>
@@ -19863,17 +19858,17 @@
     </row>
     <row r="93" spans="1:97">
       <c r="A93" s="236" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B93" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C93" s="123"/>
       <c r="D93" s="219">
         <v>23000</v>
       </c>
       <c r="E93" s="186" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F93" s="145"/>
       <c r="G93" s="145"/>
@@ -19973,17 +19968,17 @@
     </row>
     <row r="94" spans="1:97">
       <c r="A94" s="236" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="58" t="s">
         <v>205</v>
-      </c>
-      <c r="B94" s="58" t="s">
-        <v>206</v>
       </c>
       <c r="C94" s="123"/>
       <c r="D94" s="219">
         <v>40000</v>
       </c>
       <c r="E94" s="186" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F94" s="145"/>
       <c r="G94" s="145"/>
@@ -20083,17 +20078,17 @@
     </row>
     <row r="95" spans="1:97">
       <c r="A95" s="236" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" s="123"/>
       <c r="D95" s="219">
         <v>7000</v>
       </c>
       <c r="E95" s="187" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F95" s="145"/>
       <c r="G95" s="145"/>
@@ -22235,10 +22230,10 @@
     </row>
     <row r="116" spans="1:97">
       <c r="A116" s="236" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="C116" s="123">
         <v>1763999686</v>
@@ -22247,7 +22242,7 @@
         <v>35000</v>
       </c>
       <c r="E116" s="187" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F116" s="145"/>
       <c r="G116" s="145"/>
@@ -22459,10 +22454,10 @@
     </row>
     <row r="118" spans="1:97" ht="13.5" thickBot="1">
       <c r="A118" s="237" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B118" s="181" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="C118" s="123">
         <v>1758900692</v>
@@ -22570,14 +22565,14 @@
       <c r="CS118" s="145"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="332" t="s">
+      <c r="A119" s="331" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="333"/>
-      <c r="C119" s="345"/>
+      <c r="B119" s="332"/>
+      <c r="C119" s="344"/>
       <c r="D119" s="222">
         <f>SUM(D37:D118)</f>
-        <v>2505725</v>
+        <v>2505125</v>
       </c>
       <c r="E119" s="214"/>
       <c r="F119" s="145"/>
@@ -22777,14 +22772,14 @@
       <c r="CS120" s="145"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="332" t="s">
+      <c r="A121" s="331" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="333"/>
-      <c r="C121" s="333"/>
+      <c r="B121" s="332"/>
+      <c r="C121" s="332"/>
       <c r="D121" s="222">
         <f>D119+M121</f>
-        <v>2505725</v>
+        <v>2505125</v>
       </c>
       <c r="E121" s="214"/>
       <c r="F121" s="145"/>
@@ -33992,8 +33987,8 @@
       <c r="L1357" s="51"/>
     </row>
   </sheetData>
-  <sortState ref="A76:E96">
-    <sortCondition ref="A75"/>
+  <sortState ref="B38:E43">
+    <sortCondition ref="B38"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="A121:C121"/>
@@ -34018,8 +34013,8 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34037,35 +34032,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="345" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="348"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="347"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="355" t="s">
+      <c r="A2" s="354" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="356"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="357"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="356"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="349" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="351"/>
+      <c r="A3" s="348" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="350"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34088,15 +34083,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="358" t="s">
+      <c r="A4" s="357" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="359"/>
+      <c r="B4" s="358"/>
       <c r="C4" s="278"/>
-      <c r="D4" s="360" t="s">
+      <c r="D4" s="359" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="361"/>
+      <c r="E4" s="360"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -34195,7 +34190,7 @@
       <c r="D7" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="303">
+      <c r="E7" s="302">
         <v>67758.442900002003</v>
       </c>
       <c r="F7" s="7"/>
@@ -34341,16 +34336,16 @@
       <c r="Y11" s="7"/>
     </row>
     <row r="12" spans="1:25" ht="21.75">
-      <c r="A12" s="305" t="s">
+      <c r="A12" s="304" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="306">
+      <c r="B12" s="305">
         <f>B6+B7-B10-B11</f>
         <v>97419.277800000098</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E12" s="257">
         <v>302371</v>
@@ -34379,7 +34374,7 @@
       <c r="Y12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="21.75">
-      <c r="A13" s="307"/>
+      <c r="A13" s="306"/>
       <c r="B13" s="282"/>
       <c r="C13" s="40"/>
       <c r="D13" s="39"/>
@@ -34406,11 +34401,11 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="308"/>
+      <c r="A14" s="307"/>
       <c r="B14" s="259"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="303"/>
+      <c r="E14" s="302"/>
       <c r="F14" s="7"/>
       <c r="G14" s="248"/>
       <c r="H14" s="7"/>
@@ -34433,7 +34428,7 @@
       <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:25" ht="21.75">
-      <c r="A15" s="308"/>
+      <c r="A15" s="307"/>
       <c r="B15" s="259"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -34460,10 +34455,10 @@
       <c r="Y15" s="7"/>
     </row>
     <row r="16" spans="1:25" ht="21.75">
-      <c r="A16" s="301" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="302">
+      <c r="A16" s="300" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="301">
         <v>500000</v>
       </c>
       <c r="C16" s="40"/>
@@ -34560,13 +34555,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="352" t="s">
+      <c r="A19" s="351" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="353"/>
-      <c r="C19" s="353"/>
-      <c r="D19" s="353"/>
-      <c r="E19" s="354"/>
+      <c r="B19" s="352"/>
+      <c r="C19" s="352"/>
+      <c r="D19" s="352"/>
+      <c r="E19" s="353"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
@@ -34625,7 +34620,7 @@
     </row>
     <row r="21" spans="1:25" ht="21.75">
       <c r="A21" s="262" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="127">
         <v>26800</v>
@@ -34827,7 +34822,7 @@
     </row>
     <row r="27" spans="1:25" ht="21.75">
       <c r="A27" s="262" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="127">
         <v>21650</v>
@@ -34860,17 +34855,17 @@
       <c r="Y27" s="7"/>
     </row>
     <row r="28" spans="1:25" ht="21.75">
-      <c r="A28" s="295" t="s">
-        <v>229</v>
-      </c>
-      <c r="B28" s="296">
+      <c r="A28" s="294" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="295">
         <v>20000</v>
       </c>
-      <c r="C28" s="297"/>
-      <c r="D28" s="298" t="s">
+      <c r="C28" s="296"/>
+      <c r="D28" s="297" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="299">
+      <c r="E28" s="298">
         <v>37000</v>
       </c>
       <c r="G28" s="16"/>
@@ -34894,17 +34889,17 @@
       <c r="Y28" s="7"/>
     </row>
     <row r="29" spans="1:25" ht="21.75">
-      <c r="A29" s="295" t="s">
+      <c r="A29" s="294" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="296">
+      <c r="B29" s="295">
         <v>290000</v>
       </c>
-      <c r="C29" s="297"/>
-      <c r="D29" s="298" t="s">
+      <c r="C29" s="296"/>
+      <c r="D29" s="297" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="299">
+      <c r="E29" s="298">
         <v>40000</v>
       </c>
       <c r="G29" s="16"/>
@@ -34928,17 +34923,17 @@
       <c r="Y29" s="7"/>
     </row>
     <row r="30" spans="1:25" ht="21.75">
-      <c r="A30" s="295" t="s">
+      <c r="A30" s="294" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="296">
+      <c r="B30" s="295">
         <v>27000</v>
       </c>
-      <c r="C30" s="297"/>
-      <c r="D30" s="298" t="s">
-        <v>239</v>
-      </c>
-      <c r="E30" s="299">
+      <c r="C30" s="296"/>
+      <c r="D30" s="297" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="298">
         <v>23000</v>
       </c>
       <c r="G30" s="16"/>
@@ -34970,7 +34965,7 @@
       </c>
       <c r="C31" s="129"/>
       <c r="D31" s="286" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E31" s="287">
         <v>40000</v>
